--- a/example/Data.xlsx
+++ b/example/Data.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dawid\Documents\gitlab\eves_custom_module\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{980F3E9D-BC5B-4303-B22D-9416183C04BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26AED4FD-4834-4B90-8B3C-B5BF763ED787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Output" sheetId="1" r:id="rId1"/>
-    <sheet name="Input" sheetId="2" r:id="rId2"/>
-    <sheet name="Errors" sheetId="4" r:id="rId3"/>
-    <sheet name="Decoding" sheetId="3" r:id="rId4"/>
+    <sheet name="Arkusz1" sheetId="5" state="hidden" r:id="rId2"/>
+    <sheet name="Input" sheetId="2" r:id="rId3"/>
+    <sheet name="Errors" sheetId="4" r:id="rId4"/>
+    <sheet name="Decoding" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Decoding!$A$1:$U$543</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Decoding!$A$1:$U$543</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3217" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3284" uniqueCount="275">
   <si>
     <t>buf 0</t>
   </si>
@@ -746,6 +747,126 @@
   <si>
     <t>Data from module 2</t>
   </si>
+  <si>
+    <t>Pack Volt LSB</t>
+  </si>
+  <si>
+    <t>High Cell Volt LSB</t>
+  </si>
+  <si>
+    <t>Low Cell Volt LSB</t>
+  </si>
+  <si>
+    <t>AVG Cell Volt LSB</t>
+  </si>
+  <si>
+    <t>High Cell Volt ID LSB</t>
+  </si>
+  <si>
+    <t>Low Cell Volt ID LSB</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Pack Volt MSB</t>
+  </si>
+  <si>
+    <t>High Cell Volt MSB</t>
+  </si>
+  <si>
+    <t>Low Cell Volt MSB</t>
+  </si>
+  <si>
+    <t>AVG Cell Volt MSB</t>
+  </si>
+  <si>
+    <t>High Cell Volt ID MSB</t>
+  </si>
+  <si>
+    <t>Low Cell Volt ID MSB</t>
+  </si>
+  <si>
+    <t>Group ID</t>
+  </si>
+  <si>
+    <t>Cell 35 LSB</t>
+  </si>
+  <si>
+    <t>Cell 35 MSB</t>
+  </si>
+  <si>
+    <t>Cell 34 LSB</t>
+  </si>
+  <si>
+    <t>Cell 34 MSB</t>
+  </si>
+  <si>
+    <t>Cell 33 LSB</t>
+  </si>
+  <si>
+    <t>Cell 33 MSB</t>
+  </si>
+  <si>
+    <t>620D</t>
+  </si>
+  <si>
+    <t>Cell 36 MSB</t>
+  </si>
+  <si>
+    <t>Cell 36 LSB</t>
+  </si>
+  <si>
+    <t>Cell 37 MSB</t>
+  </si>
+  <si>
+    <t>Cell 37 LSB</t>
+  </si>
+  <si>
+    <t>Cell 38 MSB</t>
+  </si>
+  <si>
+    <t>Cell 38 LSB</t>
+  </si>
+  <si>
+    <t>Cell 39 MSB</t>
+  </si>
+  <si>
+    <t>Cell 39 LSB</t>
+  </si>
+  <si>
+    <t>Cell 40 MSB</t>
+  </si>
+  <si>
+    <t>Cell 40 LSB</t>
+  </si>
+  <si>
+    <t>Cell 41 MSB</t>
+  </si>
+  <si>
+    <t>Cell 41 LSB</t>
+  </si>
+  <si>
+    <t>Cell volt function [mV]</t>
+  </si>
+  <si>
+    <t>Pack Volt function [dV] (V * 10)</t>
+  </si>
+  <si>
+    <t>(MSB &lt;&lt; 8) + LSB</t>
+  </si>
+  <si>
+    <t>High Temp</t>
+  </si>
+  <si>
+    <t>Low Temp</t>
+  </si>
+  <si>
+    <t>Avg Temp</t>
+  </si>
+  <si>
+    <t>Cell Volt ID</t>
+  </si>
 </sst>
 </file>
 
@@ -855,7 +976,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -891,9 +1012,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1171,27 +1295,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:O34"/>
+  <dimension ref="B2:R39"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B11:B12"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="10.85546875" style="1" customWidth="1"/>
-    <col min="3" max="10" width="14.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.5703125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="25.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="15.42578125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="24.42578125" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="10.88671875" style="1" customWidth="1"/>
+    <col min="3" max="10" width="14.109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="5.5546875" style="1" customWidth="1"/>
+    <col min="12" max="13" width="10.88671875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.6640625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="15.44140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="24.44140625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
         <v>81</v>
       </c>
@@ -1224,16 +1348,19 @@
         <v>8</v>
       </c>
       <c r="M2" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="N2" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="O2" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="P2" s="6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="3">
         <v>6101</v>
       </c>
@@ -1258,17 +1385,21 @@
         <v>1</v>
       </c>
       <c r="M3" s="3">
-        <f t="shared" ref="M3" si="1">_xlfn.BITAND(HEX2DEC(B3), HEX2DEC("00F"))</f>
-        <v>1</v>
-      </c>
-      <c r="N3" s="5" t="s">
+        <f>_xlfn.BITRSHIFT(_xlfn.BITAND(HEX2DEC(B3), HEX2DEC("0F0")),4)</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="3">
+        <f>_xlfn.BITAND(HEX2DEC(B3), HEX2DEC("00F"))</f>
+        <v>1</v>
+      </c>
+      <c r="O3" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B4" s="3">
         <v>6102</v>
       </c>
@@ -1299,11 +1430,15 @@
         <v>1</v>
       </c>
       <c r="M4" s="3">
-        <f t="shared" ref="M4:M11" si="2">_xlfn.BITAND(HEX2DEC(B4), HEX2DEC("00F"))</f>
+        <f t="shared" ref="M4:M19" si="1">_xlfn.BITRSHIFT(_xlfn.BITAND(HEX2DEC(B4), HEX2DEC("0F0")),4)</f>
+        <v>0</v>
+      </c>
+      <c r="N4" s="3">
+        <f t="shared" ref="N4:N19" si="2">_xlfn.BITAND(HEX2DEC(B4), HEX2DEC("00F"))</f>
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B5" s="3">
         <v>6103</v>
       </c>
@@ -1334,11 +1469,15 @@
         <v>1</v>
       </c>
       <c r="M5" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N5" s="3">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B6" s="3">
         <v>6104</v>
       </c>
@@ -1369,11 +1508,15 @@
         <v>1</v>
       </c>
       <c r="M6" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N6" s="3">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B7" s="3">
         <v>6105</v>
       </c>
@@ -1404,11 +1547,15 @@
         <v>1</v>
       </c>
       <c r="M7" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N7" s="3">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="3">
         <v>6106</v>
       </c>
@@ -1439,11 +1586,15 @@
         <v>1</v>
       </c>
       <c r="M8" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
         <v>6107</v>
       </c>
@@ -1474,11 +1625,15 @@
         <v>1</v>
       </c>
       <c r="M9" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>6108</v>
       </c>
@@ -1509,11 +1664,15 @@
         <v>1</v>
       </c>
       <c r="M10" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <v>6109</v>
       </c>
@@ -1544,11 +1703,15 @@
         <v>1</v>
       </c>
       <c r="M11" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="3">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <v>6209</v>
       </c>
@@ -1579,11 +1742,15 @@
         <v>2</v>
       </c>
       <c r="M12" s="3">
-        <f t="shared" ref="M12" si="4">_xlfn.BITAND(HEX2DEC(B12), HEX2DEC("00F"))</f>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="3">
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
         <v>80</v>
       </c>
@@ -1597,63 +1764,68 @@
       <c r="J13" s="11"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
-        <v>70</v>
+        <v>255</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>40</v>
+        <v>254</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>41</v>
+        <v>253</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>42</v>
+        <v>252</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>43</v>
+        <v>251</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>44</v>
+        <v>250</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>45</v>
+        <v>249</v>
       </c>
       <c r="I14" s="8" t="s">
         <v>9</v>
       </c>
       <c r="J14" s="8"/>
       <c r="L14" s="3">
-        <f>_xlfn.BITRSHIFT((_xlfn.BITAND(HEX2DEC(B14), HEX2DEC("FF00")) - HEX2DEC("6000")),8)</f>
-        <v>1</v>
+        <f t="shared" ref="L14" si="4">_xlfn.BITRSHIFT((_xlfn.BITAND(HEX2DEC(B14), HEX2DEC("FF00")) - HEX2DEC("6000")),8)</f>
+        <v>2</v>
       </c>
       <c r="M14" s="3">
-        <f>_xlfn.BITAND(HEX2DEC(B14), HEX2DEC("00F"))</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
-        <v>71</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B15" s="3">
+        <v>6212</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>34</v>
+        <v>256</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>35</v>
+        <v>257</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>36</v>
+        <v>258</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>37</v>
+        <v>259</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>38</v>
+        <v>260</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>39</v>
+        <v>261</v>
       </c>
       <c r="I15" s="8" t="s">
         <v>9</v>
@@ -1661,172 +1833,510 @@
       <c r="J15" s="8"/>
       <c r="L15" s="3">
         <f>_xlfn.BITRSHIFT((_xlfn.BITAND(HEX2DEC(B15), HEX2DEC("FF00")) - HEX2DEC("6000")),8)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M15" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N15" s="3">
         <f>_xlfn.BITAND(HEX2DEC(B15), HEX2DEC("00F"))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B16" s="3">
+        <v>6212</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J16" s="8"/>
+      <c r="L16" s="3">
+        <f t="shared" ref="L16:L17" si="5">_xlfn.BITRSHIFT((_xlfn.BITAND(HEX2DEC(B16), HEX2DEC("FF00")) - HEX2DEC("6000")),8)</f>
+        <v>2</v>
+      </c>
+      <c r="M16" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N16" s="3">
+        <f>_xlfn.BITAND(HEX2DEC(B16), HEX2DEC("00F"))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B17" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B18" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J18" s="8"/>
+      <c r="L18" s="3">
+        <f>_xlfn.BITRSHIFT((_xlfn.BITAND(HEX2DEC(B18), HEX2DEC("FF00")) - HEX2DEC("6000")),8)</f>
+        <v>1</v>
+      </c>
+      <c r="M18" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B19" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J19" s="8"/>
+      <c r="L19" s="3">
+        <f>_xlfn.BITRSHIFT((_xlfn.BITAND(HEX2DEC(B19), HEX2DEC("FF00")) - HEX2DEC("6000")),8)</f>
+        <v>1</v>
+      </c>
+      <c r="M19" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N19" s="3">
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="12" t="s">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B23" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="3" t="s">
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B24" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C24" s="8">
         <v>4210</v>
       </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8">
+      <c r="D24" s="8"/>
+      <c r="E24" s="8">
         <v>3541</v>
       </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8">
+      <c r="F24" s="8"/>
+      <c r="G24" s="8">
         <v>3642</v>
       </c>
-      <c r="H20" s="8"/>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B21" s="3">
+      <c r="H24" s="8"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B25" s="3">
         <v>6201</v>
       </c>
-      <c r="C21" s="3" t="str">
-        <f>DEC2HEX(_xlfn.BITAND(C20,HEX2DEC("FF")))</f>
+      <c r="C25" s="3" t="str">
+        <f>DEC2HEX(_xlfn.BITAND(C24,HEX2DEC("FF")))</f>
         <v>72</v>
       </c>
-      <c r="D21" s="3" t="str">
-        <f>DEC2HEX(_xlfn.BITAND(_xlfn.BITRSHIFT(C20,8),HEX2DEC("3F")))</f>
+      <c r="D25" s="3" t="str">
+        <f>DEC2HEX(_xlfn.BITAND(_xlfn.BITRSHIFT(C24,8),HEX2DEC("3F")))</f>
         <v>10</v>
       </c>
-      <c r="E21" s="3" t="str">
-        <f>DEC2HEX(_xlfn.BITAND(E20,HEX2DEC("FF")))</f>
+      <c r="E25" s="3" t="str">
+        <f>DEC2HEX(_xlfn.BITAND(E24,HEX2DEC("FF")))</f>
         <v>D5</v>
       </c>
-      <c r="F21" s="3" t="str">
-        <f>DEC2HEX(_xlfn.BITAND(_xlfn.BITRSHIFT(E20,8),HEX2DEC("3F")))</f>
+      <c r="F25" s="3" t="str">
+        <f>DEC2HEX(_xlfn.BITAND(_xlfn.BITRSHIFT(E24,8),HEX2DEC("3F")))</f>
         <v>D</v>
       </c>
-      <c r="G21" s="3" t="str">
-        <f>DEC2HEX(_xlfn.BITAND(G20,HEX2DEC("FF")))</f>
+      <c r="G25" s="3" t="str">
+        <f>DEC2HEX(_xlfn.BITAND(G24,HEX2DEC("FF")))</f>
         <v>3A</v>
       </c>
-      <c r="H21" s="3" t="str">
-        <f>DEC2HEX(_xlfn.BITAND(_xlfn.BITRSHIFT(G20,8),HEX2DEC("3F")))</f>
+      <c r="H25" s="3" t="str">
+        <f>DEC2HEX(_xlfn.BITAND(_xlfn.BITRSHIFT(G24,8),HEX2DEC("3F")))</f>
         <v>E</v>
       </c>
-      <c r="L21" s="3">
-        <f t="shared" ref="L21" si="5">_xlfn.BITRSHIFT((_xlfn.BITAND(HEX2DEC(B21), HEX2DEC("FF00")) - HEX2DEC("6000")),8)</f>
+      <c r="L25" s="3">
+        <f t="shared" ref="L25" si="6">_xlfn.BITRSHIFT((_xlfn.BITAND(HEX2DEC(B25), HEX2DEC("FF00")) - HEX2DEC("6000")),8)</f>
         <v>2</v>
       </c>
-      <c r="M21" s="3">
-        <f t="shared" ref="M21" si="6">_xlfn.BITAND(HEX2DEC(B21), HEX2DEC("00F"))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="3" t="s">
+      <c r="M25" s="3"/>
+      <c r="N25" s="3">
+        <f t="shared" ref="N25" si="7">_xlfn.BITAND(HEX2DEC(B25), HEX2DEC("00F"))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B26" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C26" s="3">
         <v>25</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D26" s="3">
         <v>30</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
         <v>-10</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G26" s="3">
         <v>-25</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H26" s="3">
         <v>150</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B23" s="3" t="s">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B27" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C23" s="3">
-        <f>C22-40</f>
+      <c r="C27" s="3">
+        <f>C26-40</f>
         <v>-15</v>
       </c>
-      <c r="D23" s="3">
-        <f t="shared" ref="D23:H23" si="7">D22-40</f>
+      <c r="D27" s="3">
+        <f t="shared" ref="D27:H27" si="8">D26-40</f>
         <v>-10</v>
       </c>
-      <c r="E23" s="3">
-        <f t="shared" si="7"/>
+      <c r="E27" s="3">
+        <f t="shared" si="8"/>
         <v>-40</v>
       </c>
-      <c r="F23" s="3">
-        <f t="shared" si="7"/>
+      <c r="F27" s="3">
+        <f t="shared" si="8"/>
         <v>-50</v>
       </c>
-      <c r="G23" s="3">
-        <f t="shared" si="7"/>
+      <c r="G27" s="3">
+        <f t="shared" si="8"/>
         <v>-65</v>
       </c>
-      <c r="H23" s="3">
-        <f t="shared" si="7"/>
+      <c r="H27" s="3">
+        <f t="shared" si="8"/>
         <v>110</v>
       </c>
-      <c r="L23" s="3">
-        <f t="shared" ref="L23" si="8">_xlfn.BITRSHIFT((_xlfn.BITAND(HEX2DEC(B23), HEX2DEC("FF00")) - HEX2DEC("6000")),8)</f>
+      <c r="L27" s="3">
+        <f t="shared" ref="L27" si="9">_xlfn.BITRSHIFT((_xlfn.BITAND(HEX2DEC(B27), HEX2DEC("FF00")) - HEX2DEC("6000")),8)</f>
         <v>5</v>
       </c>
-      <c r="M23" s="3">
-        <f t="shared" ref="M23" si="9">_xlfn.BITAND(HEX2DEC(B23), HEX2DEC("00F"))</f>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3">
+        <f t="shared" ref="N27" si="10">_xlfn.BITAND(HEX2DEC(B27), HEX2DEC("00F"))</f>
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="E30" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="E31" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="E32" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F31" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C33" s="1">
-        <f>HEX2DEC(C21)+(_xlfn.BITAND(HEX2DEC(D21),HEX2DEC("3F"))*256)</f>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C32" s="1">
+        <f>HEX2DEC(C25)+(_xlfn.BITAND(HEX2DEC(D25),HEX2DEC("3F"))*256)</f>
         <v>4210</v>
       </c>
     </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E34" s="1">
-        <f>HEX2DEC(F32)+(_xlfn.BITAND(HEX2DEC(E32),HEX2DEC("3F"))*256)</f>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="E33" s="1">
+        <f>HEX2DEC(F31)+(_xlfn.BITAND(HEX2DEC(E31),HEX2DEC("3F"))*256)</f>
         <v>2825</v>
       </c>
     </row>
+    <row r="36" spans="2:18" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B36" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K36" s="2"/>
+      <c r="L36" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="O36" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="P36" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q36" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="R36" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B37" s="3">
+        <v>8000</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J37" s="8"/>
+      <c r="L37" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3">
+        <f>_xlfn.BITAND(HEX2DEC(B37), HEX2DEC("0FF"))</f>
+        <v>0</v>
+      </c>
+      <c r="O37" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="P37" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q37" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="R37" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="2:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B38" s="3">
+        <v>8010</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J38" s="8"/>
+      <c r="L38" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3">
+        <f>_xlfn.BITAND(HEX2DEC(B38), HEX2DEC("0FF"))</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B39" s="3">
+        <v>8020</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J39" s="8"/>
+      <c r="L39" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3">
+        <f>_xlfn.BITAND(HEX2DEC(B39), HEX2DEC("0FF"))</f>
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="25">
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I37:J37"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="E3:H3"/>
-    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B23:H23"/>
     <mergeCell ref="I13:J13"/>
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="I10:J10"/>
@@ -1836,17 +2346,33 @@
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="I6:J6"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I16:J16"/>
     <mergeCell ref="I15:J15"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F22F4753-5960-40EB-BA59-7932D2CAD370}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D3AA52D-7CC9-48A3-8067-69C479FDC628}">
   <dimension ref="B2:M13"/>
   <sheetViews>
@@ -1854,18 +2380,18 @@
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="10.85546875" style="1" customWidth="1"/>
-    <col min="3" max="10" width="14.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.5703125" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="10.88671875" style="1" customWidth="1"/>
+    <col min="3" max="10" width="14.109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5546875" customWidth="1"/>
     <col min="12" max="12" width="40" style="1" customWidth="1"/>
-    <col min="13" max="13" width="25.7109375" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="13" max="13" width="25.6640625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
         <v>81</v>
       </c>
@@ -1900,7 +2426,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>90</v>
       </c>
@@ -1933,7 +2459,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>91</v>
       </c>
@@ -1966,7 +2492,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>94</v>
       </c>
@@ -1999,7 +2525,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>97</v>
       </c>
@@ -2032,7 +2558,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
         <v>96</v>
       </c>
@@ -2065,7 +2591,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
         <v>81</v>
       </c>
@@ -2100,7 +2626,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
         <v>209</v>
       </c>
@@ -2133,7 +2659,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
         <v>213</v>
       </c>
@@ -2166,7 +2692,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
         <v>214</v>
       </c>
@@ -2214,32 +2740,32 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F58BB766-A888-4048-BDB6-8CDBA9841D14}">
   <dimension ref="B2:P10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="10.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" style="1" customWidth="1"/>
-    <col min="4" max="10" width="14.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.140625" style="1" customWidth="1"/>
-    <col min="12" max="13" width="5.5703125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9.5703125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="29.85546875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="51.42578125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="25.7109375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="15.42578125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="24.42578125" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="10.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" style="1" customWidth="1"/>
+    <col min="4" max="10" width="14.109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.109375" style="1" customWidth="1"/>
+    <col min="12" max="13" width="5.5546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5546875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="29.88671875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="51.44140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="25.6640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="15.44140625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="24.44140625" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
         <v>81</v>
       </c>
@@ -2282,7 +2808,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="3" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>228</v>
       </c>
@@ -2321,7 +2847,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>232</v>
       </c>
@@ -2360,7 +2886,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>233</v>
       </c>
@@ -2399,7 +2925,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="N6" s="3">
         <v>3</v>
       </c>
@@ -2408,7 +2934,7 @@
       </c>
       <c r="P6" s="3"/>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="N7" s="3">
         <v>4</v>
       </c>
@@ -2417,7 +2943,7 @@
       </c>
       <c r="P7" s="3"/>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="N8" s="3">
         <v>5</v>
       </c>
@@ -2426,7 +2952,7 @@
       </c>
       <c r="P8" s="3"/>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="N9" s="3">
         <v>6</v>
       </c>
@@ -2435,7 +2961,7 @@
       </c>
       <c r="P9" s="3"/>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="N10" s="3">
         <v>7</v>
       </c>
@@ -2456,7 +2982,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A982B0CE-D6F7-4B8A-9EB3-020911F38CD7}">
   <dimension ref="A1:Z559"/>
   <sheetViews>
@@ -2464,16 +2990,16 @@
       <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" customWidth="1"/>
     <col min="14" max="14" width="10" customWidth="1"/>
-    <col min="15" max="15" width="8.85546875" customWidth="1"/>
+    <col min="15" max="15" width="8.88671875" customWidth="1"/>
     <col min="16" max="18" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>100</v>
       </c>
@@ -2550,7 +3076,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>100363</v>
       </c>
@@ -2634,7 +3160,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>100363</v>
       </c>
@@ -2718,7 +3244,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>100363</v>
       </c>
@@ -2802,7 +3328,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>100363</v>
       </c>
@@ -2886,7 +3412,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>100363</v>
       </c>
@@ -2970,7 +3496,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>100363</v>
       </c>
@@ -3054,7 +3580,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>100364</v>
       </c>
@@ -3138,7 +3664,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>100364</v>
       </c>
@@ -3222,7 +3748,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>100364</v>
       </c>
@@ -3306,7 +3832,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>100364</v>
       </c>
@@ -3390,7 +3916,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>100364</v>
       </c>
@@ -3474,7 +4000,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>100364</v>
       </c>
@@ -3558,7 +4084,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>100364</v>
       </c>
@@ -3642,7 +4168,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>100364</v>
       </c>
@@ -3726,7 +4252,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>100364</v>
       </c>
@@ -3810,7 +4336,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>100364</v>
       </c>
@@ -3894,7 +4420,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>100365</v>
       </c>
@@ -3978,7 +4504,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>100365</v>
       </c>
@@ -4062,7 +4588,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>100365</v>
       </c>
@@ -4146,7 +4672,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>100365</v>
       </c>
@@ -4230,7 +4756,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>100365</v>
       </c>
@@ -4314,7 +4840,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>100365</v>
       </c>
@@ -4398,7 +4924,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>100365</v>
       </c>
@@ -4482,7 +5008,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>100365</v>
       </c>
@@ -4566,7 +5092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>100365</v>
       </c>
@@ -4650,7 +5176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>100365</v>
       </c>
@@ -4734,7 +5260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>100365</v>
       </c>
@@ -4818,7 +5344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>100365</v>
       </c>
@@ -4902,7 +5428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>101166</v>
       </c>
@@ -4986,7 +5512,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>101166</v>
       </c>
@@ -5070,7 +5596,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>101167</v>
       </c>
@@ -5154,7 +5680,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>101167</v>
       </c>
@@ -5238,7 +5764,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>101167</v>
       </c>
@@ -5322,7 +5848,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>101167</v>
       </c>
@@ -5406,7 +5932,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>101167</v>
       </c>
@@ -5490,7 +6016,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>101167</v>
       </c>
@@ -5574,7 +6100,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>101167</v>
       </c>
@@ -5658,7 +6184,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>101167</v>
       </c>
@@ -5742,7 +6268,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>101167</v>
       </c>
@@ -5826,7 +6352,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>101167</v>
       </c>
@@ -5910,7 +6436,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>101168</v>
       </c>
@@ -5994,7 +6520,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>101168</v>
       </c>
@@ -6078,7 +6604,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>101168</v>
       </c>
@@ -6162,7 +6688,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>101168</v>
       </c>
@@ -6246,7 +6772,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>101168</v>
       </c>
@@ -6330,7 +6856,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>101168</v>
       </c>
@@ -6414,7 +6940,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>101168</v>
       </c>
@@ -6498,7 +7024,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>101168</v>
       </c>
@@ -6582,7 +7108,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>101168</v>
       </c>
@@ -6666,7 +7192,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>101168</v>
       </c>
@@ -6750,7 +7276,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>101168</v>
       </c>
@@ -6834,7 +7360,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>101169</v>
       </c>
@@ -6918,7 +7444,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>101169</v>
       </c>
@@ -7002,7 +7528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>101169</v>
       </c>
@@ -7086,7 +7612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>101169</v>
       </c>
@@ -7170,7 +7696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>1228564</v>
       </c>
@@ -7254,7 +7780,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1228729</v>
       </c>
@@ -7338,7 +7864,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1228729</v>
       </c>
@@ -7422,7 +7948,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>1228729</v>
       </c>
@@ -7506,7 +8032,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1228729</v>
       </c>
@@ -7590,7 +8116,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1228729</v>
       </c>
@@ -7674,7 +8200,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>1228729</v>
       </c>
@@ -7758,7 +8284,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>1228729</v>
       </c>
@@ -7842,7 +8368,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>1228729</v>
       </c>
@@ -7926,7 +8452,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>1228730</v>
       </c>
@@ -8010,7 +8536,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>1228730</v>
       </c>
@@ -8094,7 +8620,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>1228730</v>
       </c>
@@ -8178,7 +8704,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>1228730</v>
       </c>
@@ -8262,7 +8788,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>1228730</v>
       </c>
@@ -8346,7 +8872,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>1228730</v>
       </c>
@@ -8430,7 +8956,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>1228730</v>
       </c>
@@ -8514,7 +9040,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>1228730</v>
       </c>
@@ -8598,7 +9124,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>1228730</v>
       </c>
@@ -8682,7 +9208,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1228730</v>
       </c>
@@ -8766,7 +9292,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>1228730</v>
       </c>
@@ -8850,7 +9376,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>1228731</v>
       </c>
@@ -8934,7 +9460,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>1228731</v>
       </c>
@@ -9018,7 +9544,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>1228731</v>
       </c>
@@ -9102,7 +9628,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>1228731</v>
       </c>
@@ -9186,7 +9712,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>1228731</v>
       </c>
@@ -9270,7 +9796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>1228731</v>
       </c>
@@ -9354,7 +9880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>1228731</v>
       </c>
@@ -9438,7 +9964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>1228731</v>
       </c>
@@ -9522,7 +10048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>1228731</v>
       </c>
@@ -9606,7 +10132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>1229732</v>
       </c>
@@ -9690,7 +10216,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>1229732</v>
       </c>
@@ -9774,7 +10300,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>1229733</v>
       </c>
@@ -9858,7 +10384,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>1229733</v>
       </c>
@@ -9942,7 +10468,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>1229733</v>
       </c>
@@ -10026,7 +10552,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>1229733</v>
       </c>
@@ -10110,7 +10636,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>1229733</v>
       </c>
@@ -10194,7 +10720,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>1229733</v>
       </c>
@@ -10278,7 +10804,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>1229733</v>
       </c>
@@ -10362,7 +10888,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>1229733</v>
       </c>
@@ -10446,7 +10972,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>1229733</v>
       </c>
@@ -10530,7 +11056,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>1229733</v>
       </c>
@@ -10614,7 +11140,7 @@
         <v/>
       </c>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>1229734</v>
       </c>
@@ -10698,7 +11224,7 @@
         <v/>
       </c>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>1229734</v>
       </c>
@@ -10782,7 +11308,7 @@
         <v/>
       </c>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>1229734</v>
       </c>
@@ -10866,7 +11392,7 @@
         <v/>
       </c>
     </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>1229734</v>
       </c>
@@ -10950,7 +11476,7 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>1229734</v>
       </c>
@@ -11034,7 +11560,7 @@
         <v/>
       </c>
     </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>1229734</v>
       </c>
@@ -11118,7 +11644,7 @@
         <v/>
       </c>
     </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>1229734</v>
       </c>
@@ -11202,7 +11728,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>1229734</v>
       </c>
@@ -11286,7 +11812,7 @@
         <v/>
       </c>
     </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>1229734</v>
       </c>
@@ -11370,7 +11896,7 @@
         <v/>
       </c>
     </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>1229734</v>
       </c>
@@ -11454,7 +11980,7 @@
         <v/>
       </c>
     </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>1229734</v>
       </c>
@@ -11538,7 +12064,7 @@
         <v/>
       </c>
     </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>1229735</v>
       </c>
@@ -11622,7 +12148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>1229735</v>
       </c>
@@ -11706,7 +12232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>1229735</v>
       </c>
@@ -11790,7 +12316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>1229735</v>
       </c>
@@ -11874,7 +12400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>1230736</v>
       </c>
@@ -11958,7 +12484,7 @@
         <v/>
       </c>
     </row>
-    <row r="114" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>1230736</v>
       </c>
@@ -12042,7 +12568,7 @@
         <v/>
       </c>
     </row>
-    <row r="115" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>1230737</v>
       </c>
@@ -12126,7 +12652,7 @@
         <v/>
       </c>
     </row>
-    <row r="116" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>1230737</v>
       </c>
@@ -12210,7 +12736,7 @@
         <v/>
       </c>
     </row>
-    <row r="117" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>1230737</v>
       </c>
@@ -12294,7 +12820,7 @@
         <v/>
       </c>
     </row>
-    <row r="118" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>1230737</v>
       </c>
@@ -12378,7 +12904,7 @@
         <v/>
       </c>
     </row>
-    <row r="119" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>1230737</v>
       </c>
@@ -12462,7 +12988,7 @@
         <v/>
       </c>
     </row>
-    <row r="120" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>1230737</v>
       </c>
@@ -12546,7 +13072,7 @@
         <v/>
       </c>
     </row>
-    <row r="121" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>1230737</v>
       </c>
@@ -12630,7 +13156,7 @@
         <v/>
       </c>
     </row>
-    <row r="122" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>1230737</v>
       </c>
@@ -12714,7 +13240,7 @@
         <v/>
       </c>
     </row>
-    <row r="123" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>1230737</v>
       </c>
@@ -12798,7 +13324,7 @@
         <v/>
       </c>
     </row>
-    <row r="124" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>1230737</v>
       </c>
@@ -12882,7 +13408,7 @@
         <v/>
       </c>
     </row>
-    <row r="125" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>1230738</v>
       </c>
@@ -12966,7 +13492,7 @@
         <v/>
       </c>
     </row>
-    <row r="126" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>1230738</v>
       </c>
@@ -13050,7 +13576,7 @@
         <v/>
       </c>
     </row>
-    <row r="127" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>1230738</v>
       </c>
@@ -13134,7 +13660,7 @@
         <v/>
       </c>
     </row>
-    <row r="128" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>1230738</v>
       </c>
@@ -13218,7 +13744,7 @@
         <v/>
       </c>
     </row>
-    <row r="129" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>1230738</v>
       </c>
@@ -13302,7 +13828,7 @@
         <v/>
       </c>
     </row>
-    <row r="130" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>1230738</v>
       </c>
@@ -13386,7 +13912,7 @@
         <v/>
       </c>
     </row>
-    <row r="131" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>1230738</v>
       </c>
@@ -13470,7 +13996,7 @@
         <v/>
       </c>
     </row>
-    <row r="132" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>1230738</v>
       </c>
@@ -13554,7 +14080,7 @@
         <v/>
       </c>
     </row>
-    <row r="133" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>1230738</v>
       </c>
@@ -13638,7 +14164,7 @@
         <v/>
       </c>
     </row>
-    <row r="134" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>1230738</v>
       </c>
@@ -13722,7 +14248,7 @@
         <v/>
       </c>
     </row>
-    <row r="135" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>1230738</v>
       </c>
@@ -13806,7 +14332,7 @@
         <v/>
       </c>
     </row>
-    <row r="136" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>1230739</v>
       </c>
@@ -13890,7 +14416,7 @@
         <v/>
       </c>
     </row>
-    <row r="137" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>1230739</v>
       </c>
@@ -13974,7 +14500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>1230739</v>
       </c>
@@ -14058,7 +14584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>1230739</v>
       </c>
@@ -14142,7 +14668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>1230739</v>
       </c>
@@ -14226,7 +14752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>1230739</v>
       </c>
@@ -14310,7 +14836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>1231740</v>
       </c>
@@ -14394,7 +14920,7 @@
         <v/>
       </c>
     </row>
-    <row r="143" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>1231997</v>
       </c>
@@ -14478,7 +15004,7 @@
         <v/>
       </c>
     </row>
-    <row r="144" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>1231997</v>
       </c>
@@ -14562,7 +15088,7 @@
         <v/>
       </c>
     </row>
-    <row r="145" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>1231997</v>
       </c>
@@ -14646,7 +15172,7 @@
         <v/>
       </c>
     </row>
-    <row r="146" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>1231997</v>
       </c>
@@ -14730,7 +15256,7 @@
         <v/>
       </c>
     </row>
-    <row r="147" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>1231997</v>
       </c>
@@ -14814,7 +15340,7 @@
         <v/>
       </c>
     </row>
-    <row r="148" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>1231998</v>
       </c>
@@ -14898,7 +15424,7 @@
         <v/>
       </c>
     </row>
-    <row r="149" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>1231998</v>
       </c>
@@ -14982,7 +15508,7 @@
         <v/>
       </c>
     </row>
-    <row r="150" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>1231998</v>
       </c>
@@ -15066,7 +15592,7 @@
         <v/>
       </c>
     </row>
-    <row r="151" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>1231998</v>
       </c>
@@ -15150,7 +15676,7 @@
         <v/>
       </c>
     </row>
-    <row r="152" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>1231998</v>
       </c>
@@ -15234,7 +15760,7 @@
         <v/>
       </c>
     </row>
-    <row r="153" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>1231998</v>
       </c>
@@ -15318,7 +15844,7 @@
         <v/>
       </c>
     </row>
-    <row r="154" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>1231998</v>
       </c>
@@ -15402,7 +15928,7 @@
         <v/>
       </c>
     </row>
-    <row r="155" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>1231998</v>
       </c>
@@ -15486,7 +16012,7 @@
         <v/>
       </c>
     </row>
-    <row r="156" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>1231998</v>
       </c>
@@ -15570,7 +16096,7 @@
         <v/>
       </c>
     </row>
-    <row r="157" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>1231998</v>
       </c>
@@ -15654,7 +16180,7 @@
         <v/>
       </c>
     </row>
-    <row r="158" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>1231998</v>
       </c>
@@ -15738,7 +16264,7 @@
         <v/>
       </c>
     </row>
-    <row r="159" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>1231999</v>
       </c>
@@ -15822,7 +16348,7 @@
         <v/>
       </c>
     </row>
-    <row r="160" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>1231999</v>
       </c>
@@ -15906,7 +16432,7 @@
         <v/>
       </c>
     </row>
-    <row r="161" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>1231999</v>
       </c>
@@ -15990,7 +16516,7 @@
         <v/>
       </c>
     </row>
-    <row r="162" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>1231999</v>
       </c>
@@ -16074,7 +16600,7 @@
         <v/>
       </c>
     </row>
-    <row r="163" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>1231999</v>
       </c>
@@ -16158,7 +16684,7 @@
         <v/>
       </c>
     </row>
-    <row r="164" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>1231999</v>
       </c>
@@ -16242,7 +16768,7 @@
         <v/>
       </c>
     </row>
-    <row r="165" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>1231999</v>
       </c>
@@ -16326,7 +16852,7 @@
         <v/>
       </c>
     </row>
-    <row r="166" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>1231999</v>
       </c>
@@ -16410,7 +16936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>1231999</v>
       </c>
@@ -16494,7 +17020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>1231999</v>
       </c>
@@ -16578,7 +17104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>1231999</v>
       </c>
@@ -16662,7 +17188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>1232000</v>
       </c>
@@ -16746,7 +17272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>1232600</v>
       </c>
@@ -16830,7 +17356,7 @@
         <v/>
       </c>
     </row>
-    <row r="172" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>1232600</v>
       </c>
@@ -16914,7 +17440,7 @@
         <v/>
       </c>
     </row>
-    <row r="173" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>1232601</v>
       </c>
@@ -16998,7 +17524,7 @@
         <v/>
       </c>
     </row>
-    <row r="174" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>1232601</v>
       </c>
@@ -17082,7 +17608,7 @@
         <v/>
       </c>
     </row>
-    <row r="175" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>1232601</v>
       </c>
@@ -17166,7 +17692,7 @@
         <v/>
       </c>
     </row>
-    <row r="176" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>1232601</v>
       </c>
@@ -17250,7 +17776,7 @@
         <v/>
       </c>
     </row>
-    <row r="177" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>1232601</v>
       </c>
@@ -17334,7 +17860,7 @@
         <v/>
       </c>
     </row>
-    <row r="178" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>1232601</v>
       </c>
@@ -17418,7 +17944,7 @@
         <v/>
       </c>
     </row>
-    <row r="179" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>1232601</v>
       </c>
@@ -17502,7 +18028,7 @@
         <v/>
       </c>
     </row>
-    <row r="180" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>1232601</v>
       </c>
@@ -17586,7 +18112,7 @@
         <v/>
       </c>
     </row>
-    <row r="181" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>1232601</v>
       </c>
@@ -17670,7 +18196,7 @@
         <v/>
       </c>
     </row>
-    <row r="182" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>1232601</v>
       </c>
@@ -17754,7 +18280,7 @@
         <v/>
       </c>
     </row>
-    <row r="183" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>1232602</v>
       </c>
@@ -17838,7 +18364,7 @@
         <v/>
       </c>
     </row>
-    <row r="184" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>1232602</v>
       </c>
@@ -17922,7 +18448,7 @@
         <v/>
       </c>
     </row>
-    <row r="185" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>1232602</v>
       </c>
@@ -18006,7 +18532,7 @@
         <v/>
       </c>
     </row>
-    <row r="186" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>1232602</v>
       </c>
@@ -18090,7 +18616,7 @@
         <v/>
       </c>
     </row>
-    <row r="187" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>1232602</v>
       </c>
@@ -18174,7 +18700,7 @@
         <v/>
       </c>
     </row>
-    <row r="188" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>1232602</v>
       </c>
@@ -18258,7 +18784,7 @@
         <v/>
       </c>
     </row>
-    <row r="189" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>1232602</v>
       </c>
@@ -18342,7 +18868,7 @@
         <v/>
       </c>
     </row>
-    <row r="190" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>1232602</v>
       </c>
@@ -18426,7 +18952,7 @@
         <v/>
       </c>
     </row>
-    <row r="191" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>1232602</v>
       </c>
@@ -18510,7 +19036,7 @@
         <v/>
       </c>
     </row>
-    <row r="192" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>1232602</v>
       </c>
@@ -18594,7 +19120,7 @@
         <v/>
       </c>
     </row>
-    <row r="193" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>1232603</v>
       </c>
@@ -18678,7 +19204,7 @@
         <v/>
       </c>
     </row>
-    <row r="194" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>1232603</v>
       </c>
@@ -18762,7 +19288,7 @@
         <v/>
       </c>
     </row>
-    <row r="195" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>1232603</v>
       </c>
@@ -18846,7 +19372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>1232603</v>
       </c>
@@ -18930,7 +19456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>1232603</v>
       </c>
@@ -19014,7 +19540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>1232603</v>
       </c>
@@ -19098,7 +19624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>1233604</v>
       </c>
@@ -19182,7 +19708,7 @@
         <v/>
       </c>
     </row>
-    <row r="200" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>1233604</v>
       </c>
@@ -19266,7 +19792,7 @@
         <v/>
       </c>
     </row>
-    <row r="201" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>1233605</v>
       </c>
@@ -19350,7 +19876,7 @@
         <v/>
       </c>
     </row>
-    <row r="202" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>1233605</v>
       </c>
@@ -19434,7 +19960,7 @@
         <v/>
       </c>
     </row>
-    <row r="203" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>1233605</v>
       </c>
@@ -19518,7 +20044,7 @@
         <v/>
       </c>
     </row>
-    <row r="204" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>1233605</v>
       </c>
@@ -19602,7 +20128,7 @@
         <v/>
       </c>
     </row>
-    <row r="205" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>1233605</v>
       </c>
@@ -19686,7 +20212,7 @@
         <v/>
       </c>
     </row>
-    <row r="206" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>1233605</v>
       </c>
@@ -19770,7 +20296,7 @@
         <v/>
       </c>
     </row>
-    <row r="207" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>1233605</v>
       </c>
@@ -19854,7 +20380,7 @@
         <v/>
       </c>
     </row>
-    <row r="208" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>1233605</v>
       </c>
@@ -19938,7 +20464,7 @@
         <v/>
       </c>
     </row>
-    <row r="209" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>1233605</v>
       </c>
@@ -20022,7 +20548,7 @@
         <v/>
       </c>
     </row>
-    <row r="210" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>1233605</v>
       </c>
@@ -20106,7 +20632,7 @@
         <v/>
       </c>
     </row>
-    <row r="211" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>1233606</v>
       </c>
@@ -20190,7 +20716,7 @@
         <v/>
       </c>
     </row>
-    <row r="212" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>1233606</v>
       </c>
@@ -20274,7 +20800,7 @@
         <v/>
       </c>
     </row>
-    <row r="213" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>1233606</v>
       </c>
@@ -20358,7 +20884,7 @@
         <v/>
       </c>
     </row>
-    <row r="214" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>1233606</v>
       </c>
@@ -20442,7 +20968,7 @@
         <v/>
       </c>
     </row>
-    <row r="215" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>1233606</v>
       </c>
@@ -20526,7 +21052,7 @@
         <v/>
       </c>
     </row>
-    <row r="216" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>1233606</v>
       </c>
@@ -20610,7 +21136,7 @@
         <v/>
       </c>
     </row>
-    <row r="217" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>1233606</v>
       </c>
@@ -20694,7 +21220,7 @@
         <v/>
       </c>
     </row>
-    <row r="218" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>1233606</v>
       </c>
@@ -20778,7 +21304,7 @@
         <v/>
       </c>
     </row>
-    <row r="219" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>1233606</v>
       </c>
@@ -20862,7 +21388,7 @@
         <v/>
       </c>
     </row>
-    <row r="220" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>1233606</v>
       </c>
@@ -20946,7 +21472,7 @@
         <v/>
       </c>
     </row>
-    <row r="221" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>1233606</v>
       </c>
@@ -21030,7 +21556,7 @@
         <v/>
       </c>
     </row>
-    <row r="222" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>1233607</v>
       </c>
@@ -21114,7 +21640,7 @@
         <v/>
       </c>
     </row>
-    <row r="223" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>1233607</v>
       </c>
@@ -21198,7 +21724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>1233607</v>
       </c>
@@ -21282,7 +21808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>1233607</v>
       </c>
@@ -21366,7 +21892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>1233607</v>
       </c>
@@ -21450,7 +21976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>1233607</v>
       </c>
@@ -21534,7 +22060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>1234608</v>
       </c>
@@ -21618,7 +22144,7 @@
         <v/>
       </c>
     </row>
-    <row r="229" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>1234608</v>
       </c>
@@ -21702,7 +22228,7 @@
         <v/>
       </c>
     </row>
-    <row r="230" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>1234609</v>
       </c>
@@ -21786,7 +22312,7 @@
         <v/>
       </c>
     </row>
-    <row r="231" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>1234609</v>
       </c>
@@ -21870,7 +22396,7 @@
         <v/>
       </c>
     </row>
-    <row r="232" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>1234609</v>
       </c>
@@ -21954,7 +22480,7 @@
         <v/>
       </c>
     </row>
-    <row r="233" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>1234609</v>
       </c>
@@ -22038,7 +22564,7 @@
         <v/>
       </c>
     </row>
-    <row r="234" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>1234609</v>
       </c>
@@ -22122,7 +22648,7 @@
         <v/>
       </c>
     </row>
-    <row r="235" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>1234609</v>
       </c>
@@ -22206,7 +22732,7 @@
         <v/>
       </c>
     </row>
-    <row r="236" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>1234609</v>
       </c>
@@ -22290,7 +22816,7 @@
         <v/>
       </c>
     </row>
-    <row r="237" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>1234609</v>
       </c>
@@ -22374,7 +22900,7 @@
         <v/>
       </c>
     </row>
-    <row r="238" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>1234609</v>
       </c>
@@ -22458,7 +22984,7 @@
         <v/>
       </c>
     </row>
-    <row r="239" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>1234609</v>
       </c>
@@ -22542,7 +23068,7 @@
         <v/>
       </c>
     </row>
-    <row r="240" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>1234610</v>
       </c>
@@ -22626,7 +23152,7 @@
         <v/>
       </c>
     </row>
-    <row r="241" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>1234610</v>
       </c>
@@ -22710,7 +23236,7 @@
         <v/>
       </c>
     </row>
-    <row r="242" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>1234610</v>
       </c>
@@ -22794,7 +23320,7 @@
         <v/>
       </c>
     </row>
-    <row r="243" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>1234610</v>
       </c>
@@ -22878,7 +23404,7 @@
         <v/>
       </c>
     </row>
-    <row r="244" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>1234610</v>
       </c>
@@ -22962,7 +23488,7 @@
         <v/>
       </c>
     </row>
-    <row r="245" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>1234610</v>
       </c>
@@ -23046,7 +23572,7 @@
         <v/>
       </c>
     </row>
-    <row r="246" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>1234610</v>
       </c>
@@ -23130,7 +23656,7 @@
         <v/>
       </c>
     </row>
-    <row r="247" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>1234610</v>
       </c>
@@ -23214,7 +23740,7 @@
         <v/>
       </c>
     </row>
-    <row r="248" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>1234610</v>
       </c>
@@ -23298,7 +23824,7 @@
         <v/>
       </c>
     </row>
-    <row r="249" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>1234610</v>
       </c>
@@ -23382,7 +23908,7 @@
         <v/>
       </c>
     </row>
-    <row r="250" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>1234611</v>
       </c>
@@ -23466,7 +23992,7 @@
         <v/>
       </c>
     </row>
-    <row r="251" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>1234611</v>
       </c>
@@ -23550,7 +24076,7 @@
         <v/>
       </c>
     </row>
-    <row r="252" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>1234611</v>
       </c>
@@ -23634,7 +24160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>1234611</v>
       </c>
@@ -23718,7 +24244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>1234611</v>
       </c>
@@ -23802,7 +24328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>1234611</v>
       </c>
@@ -23886,7 +24412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>1234611</v>
       </c>
@@ -23970,7 +24496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>1235616</v>
       </c>
@@ -24054,7 +24580,7 @@
         <v/>
       </c>
     </row>
-    <row r="258" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>1235965</v>
       </c>
@@ -24138,7 +24664,7 @@
         <v/>
       </c>
     </row>
-    <row r="259" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>1235965</v>
       </c>
@@ -24222,7 +24748,7 @@
         <v/>
       </c>
     </row>
-    <row r="260" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>1235965</v>
       </c>
@@ -24306,7 +24832,7 @@
         <v/>
       </c>
     </row>
-    <row r="261" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>1235965</v>
       </c>
@@ -24390,7 +24916,7 @@
         <v/>
       </c>
     </row>
-    <row r="262" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>1235966</v>
       </c>
@@ -24474,7 +25000,7 @@
         <v/>
       </c>
     </row>
-    <row r="263" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>1235966</v>
       </c>
@@ -24558,7 +25084,7 @@
         <v/>
       </c>
     </row>
-    <row r="264" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>1235966</v>
       </c>
@@ -24642,7 +25168,7 @@
         <v/>
       </c>
     </row>
-    <row r="265" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>1235966</v>
       </c>
@@ -24726,7 +25252,7 @@
         <v/>
       </c>
     </row>
-    <row r="266" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>1235966</v>
       </c>
@@ -24810,7 +25336,7 @@
         <v/>
       </c>
     </row>
-    <row r="267" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>1235966</v>
       </c>
@@ -24894,7 +25420,7 @@
         <v/>
       </c>
     </row>
-    <row r="268" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>1235966</v>
       </c>
@@ -24978,7 +25504,7 @@
         <v/>
       </c>
     </row>
-    <row r="269" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>1235966</v>
       </c>
@@ -25062,7 +25588,7 @@
         <v/>
       </c>
     </row>
-    <row r="270" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>1235966</v>
       </c>
@@ -25146,7 +25672,7 @@
         <v/>
       </c>
     </row>
-    <row r="271" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>1235966</v>
       </c>
@@ -25230,7 +25756,7 @@
         <v/>
       </c>
     </row>
-    <row r="272" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>1235966</v>
       </c>
@@ -25314,7 +25840,7 @@
         <v/>
       </c>
     </row>
-    <row r="273" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>1235967</v>
       </c>
@@ -25398,7 +25924,7 @@
         <v/>
       </c>
     </row>
-    <row r="274" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>1235967</v>
       </c>
@@ -25482,7 +26008,7 @@
         <v/>
       </c>
     </row>
-    <row r="275" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>1235967</v>
       </c>
@@ -25566,7 +26092,7 @@
         <v/>
       </c>
     </row>
-    <row r="276" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>1235967</v>
       </c>
@@ -25650,7 +26176,7 @@
         <v/>
       </c>
     </row>
-    <row r="277" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>1235967</v>
       </c>
@@ -25734,7 +26260,7 @@
         <v/>
       </c>
     </row>
-    <row r="278" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>1235967</v>
       </c>
@@ -25818,7 +26344,7 @@
         <v/>
       </c>
     </row>
-    <row r="279" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>1235967</v>
       </c>
@@ -25902,7 +26428,7 @@
         <v/>
       </c>
     </row>
-    <row r="280" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>1235967</v>
       </c>
@@ -25986,7 +26512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>1235967</v>
       </c>
@@ -26070,7 +26596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>1235967</v>
       </c>
@@ -26154,7 +26680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>1235967</v>
       </c>
@@ -26238,7 +26764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>1236771</v>
       </c>
@@ -26322,7 +26848,7 @@
         <v/>
       </c>
     </row>
-    <row r="285" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>1236771</v>
       </c>
@@ -26406,7 +26932,7 @@
         <v/>
       </c>
     </row>
-    <row r="286" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>1236772</v>
       </c>
@@ -26490,7 +27016,7 @@
         <v/>
       </c>
     </row>
-    <row r="287" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>1236772</v>
       </c>
@@ -26574,7 +27100,7 @@
         <v/>
       </c>
     </row>
-    <row r="288" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>1236772</v>
       </c>
@@ -26658,7 +27184,7 @@
         <v/>
       </c>
     </row>
-    <row r="289" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>1236772</v>
       </c>
@@ -26742,7 +27268,7 @@
         <v/>
       </c>
     </row>
-    <row r="290" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>1236772</v>
       </c>
@@ -26826,7 +27352,7 @@
         <v/>
       </c>
     </row>
-    <row r="291" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>1236772</v>
       </c>
@@ -26910,7 +27436,7 @@
         <v/>
       </c>
     </row>
-    <row r="292" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>1236772</v>
       </c>
@@ -26994,7 +27520,7 @@
         <v/>
       </c>
     </row>
-    <row r="293" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>1236772</v>
       </c>
@@ -27078,7 +27604,7 @@
         <v/>
       </c>
     </row>
-    <row r="294" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>1236772</v>
       </c>
@@ -27162,7 +27688,7 @@
         <v/>
       </c>
     </row>
-    <row r="295" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>1236772</v>
       </c>
@@ -27246,7 +27772,7 @@
         <v/>
       </c>
     </row>
-    <row r="296" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>1236772</v>
       </c>
@@ -27330,7 +27856,7 @@
         <v/>
       </c>
     </row>
-    <row r="297" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>1236773</v>
       </c>
@@ -27414,7 +27940,7 @@
         <v/>
       </c>
     </row>
-    <row r="298" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>1236773</v>
       </c>
@@ -27498,7 +28024,7 @@
         <v/>
       </c>
     </row>
-    <row r="299" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>1236773</v>
       </c>
@@ -27582,7 +28108,7 @@
         <v/>
       </c>
     </row>
-    <row r="300" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>1236773</v>
       </c>
@@ -27666,7 +28192,7 @@
         <v/>
       </c>
     </row>
-    <row r="301" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>1236773</v>
       </c>
@@ -27750,7 +28276,7 @@
         <v/>
       </c>
     </row>
-    <row r="302" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>1236773</v>
       </c>
@@ -27834,7 +28360,7 @@
         <v/>
       </c>
     </row>
-    <row r="303" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>1236773</v>
       </c>
@@ -27918,7 +28444,7 @@
         <v/>
       </c>
     </row>
-    <row r="304" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>1236773</v>
       </c>
@@ -28002,7 +28528,7 @@
         <v/>
       </c>
     </row>
-    <row r="305" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>1236773</v>
       </c>
@@ -28086,7 +28612,7 @@
         <v/>
       </c>
     </row>
-    <row r="306" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>1236773</v>
       </c>
@@ -28170,7 +28696,7 @@
         <v/>
       </c>
     </row>
-    <row r="307" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>1236774</v>
       </c>
@@ -28254,7 +28780,7 @@
         <v/>
       </c>
     </row>
-    <row r="308" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>1236774</v>
       </c>
@@ -28338,7 +28864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>1236774</v>
       </c>
@@ -28422,7 +28948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>1236774</v>
       </c>
@@ -28506,7 +29032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>1236774</v>
       </c>
@@ -28590,7 +29116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>1237775</v>
       </c>
@@ -28674,7 +29200,7 @@
         <v/>
       </c>
     </row>
-    <row r="313" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>1237775</v>
       </c>
@@ -28758,7 +29284,7 @@
         <v/>
       </c>
     </row>
-    <row r="314" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>1237776</v>
       </c>
@@ -28842,7 +29368,7 @@
         <v/>
       </c>
     </row>
-    <row r="315" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>1237776</v>
       </c>
@@ -28926,7 +29452,7 @@
         <v/>
       </c>
     </row>
-    <row r="316" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>1237776</v>
       </c>
@@ -29010,7 +29536,7 @@
         <v/>
       </c>
     </row>
-    <row r="317" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>1237776</v>
       </c>
@@ -29094,7 +29620,7 @@
         <v/>
       </c>
     </row>
-    <row r="318" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>1237776</v>
       </c>
@@ -29178,7 +29704,7 @@
         <v/>
       </c>
     </row>
-    <row r="319" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>1237776</v>
       </c>
@@ -29262,7 +29788,7 @@
         <v/>
       </c>
     </row>
-    <row r="320" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>1237776</v>
       </c>
@@ -29346,7 +29872,7 @@
         <v/>
       </c>
     </row>
-    <row r="321" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>1237776</v>
       </c>
@@ -29430,7 +29956,7 @@
         <v/>
       </c>
     </row>
-    <row r="322" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>1237776</v>
       </c>
@@ -29514,7 +30040,7 @@
         <v/>
       </c>
     </row>
-    <row r="323" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>1237776</v>
       </c>
@@ -29598,7 +30124,7 @@
         <v/>
       </c>
     </row>
-    <row r="324" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>1237777</v>
       </c>
@@ -29682,7 +30208,7 @@
         <v/>
       </c>
     </row>
-    <row r="325" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>1237777</v>
       </c>
@@ -29766,7 +30292,7 @@
         <v/>
       </c>
     </row>
-    <row r="326" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>1237777</v>
       </c>
@@ -29850,7 +30376,7 @@
         <v/>
       </c>
     </row>
-    <row r="327" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>1237777</v>
       </c>
@@ -29934,7 +30460,7 @@
         <v/>
       </c>
     </row>
-    <row r="328" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>1237777</v>
       </c>
@@ -30018,7 +30544,7 @@
         <v/>
       </c>
     </row>
-    <row r="329" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>1237777</v>
       </c>
@@ -30102,7 +30628,7 @@
         <v/>
       </c>
     </row>
-    <row r="330" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>1237777</v>
       </c>
@@ -30186,7 +30712,7 @@
         <v/>
       </c>
     </row>
-    <row r="331" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>1237777</v>
       </c>
@@ -30270,7 +30796,7 @@
         <v/>
       </c>
     </row>
-    <row r="332" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>1237777</v>
       </c>
@@ -30354,7 +30880,7 @@
         <v/>
       </c>
     </row>
-    <row r="333" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>1237777</v>
       </c>
@@ -30438,7 +30964,7 @@
         <v/>
       </c>
     </row>
-    <row r="334" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>1237777</v>
       </c>
@@ -30522,7 +31048,7 @@
         <v/>
       </c>
     </row>
-    <row r="335" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>1237778</v>
       </c>
@@ -30606,7 +31132,7 @@
         <v/>
       </c>
     </row>
-    <row r="336" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>1237778</v>
       </c>
@@ -30690,7 +31216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>1237778</v>
       </c>
@@ -30774,7 +31300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>1237778</v>
       </c>
@@ -30858,7 +31384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>1237778</v>
       </c>
@@ -30942,7 +31468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>1237778</v>
       </c>
@@ -31026,7 +31552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>1238779</v>
       </c>
@@ -31110,7 +31636,7 @@
         <v/>
       </c>
     </row>
-    <row r="342" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>1239036</v>
       </c>
@@ -31194,7 +31720,7 @@
         <v/>
       </c>
     </row>
-    <row r="343" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>1239036</v>
       </c>
@@ -31278,7 +31804,7 @@
         <v/>
       </c>
     </row>
-    <row r="344" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>1239036</v>
       </c>
@@ -31362,7 +31888,7 @@
         <v/>
       </c>
     </row>
-    <row r="345" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>1239036</v>
       </c>
@@ -31446,7 +31972,7 @@
         <v/>
       </c>
     </row>
-    <row r="346" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>1239036</v>
       </c>
@@ -31530,7 +32056,7 @@
         <v/>
       </c>
     </row>
-    <row r="347" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>1239036</v>
       </c>
@@ -31614,7 +32140,7 @@
         <v/>
       </c>
     </row>
-    <row r="348" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>1239036</v>
       </c>
@@ -31698,7 +32224,7 @@
         <v/>
       </c>
     </row>
-    <row r="349" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>1239037</v>
       </c>
@@ -31782,7 +32308,7 @@
         <v/>
       </c>
     </row>
-    <row r="350" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>1239037</v>
       </c>
@@ -31866,7 +32392,7 @@
         <v/>
       </c>
     </row>
-    <row r="351" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>1239037</v>
       </c>
@@ -31950,7 +32476,7 @@
         <v/>
       </c>
     </row>
-    <row r="352" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>1239037</v>
       </c>
@@ -32034,7 +32560,7 @@
         <v/>
       </c>
     </row>
-    <row r="353" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>1239037</v>
       </c>
@@ -32118,7 +32644,7 @@
         <v/>
       </c>
     </row>
-    <row r="354" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>1239037</v>
       </c>
@@ -32202,7 +32728,7 @@
         <v/>
       </c>
     </row>
-    <row r="355" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>1239037</v>
       </c>
@@ -32286,7 +32812,7 @@
         <v/>
       </c>
     </row>
-    <row r="356" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>1239037</v>
       </c>
@@ -32370,7 +32896,7 @@
         <v/>
       </c>
     </row>
-    <row r="357" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>1239037</v>
       </c>
@@ -32454,7 +32980,7 @@
         <v/>
       </c>
     </row>
-    <row r="358" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>1239037</v>
       </c>
@@ -32538,7 +33064,7 @@
         <v/>
       </c>
     </row>
-    <row r="359" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>1239038</v>
       </c>
@@ -32622,7 +33148,7 @@
         <v/>
       </c>
     </row>
-    <row r="360" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>1239038</v>
       </c>
@@ -32706,7 +33232,7 @@
         <v/>
       </c>
     </row>
-    <row r="361" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>1239038</v>
       </c>
@@ -32790,7 +33316,7 @@
         <v/>
       </c>
     </row>
-    <row r="362" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>1239038</v>
       </c>
@@ -32874,7 +33400,7 @@
         <v/>
       </c>
     </row>
-    <row r="363" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>1239038</v>
       </c>
@@ -32958,7 +33484,7 @@
         <v/>
       </c>
     </row>
-    <row r="364" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>1239038</v>
       </c>
@@ -33042,7 +33568,7 @@
         <v/>
       </c>
     </row>
-    <row r="365" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>1239038</v>
       </c>
@@ -33126,7 +33652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>1239038</v>
       </c>
@@ -33210,7 +33736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>1239038</v>
       </c>
@@ -33294,7 +33820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>1239038</v>
       </c>
@@ -33378,7 +33904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>1239038</v>
       </c>
@@ -33462,7 +33988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>1239639</v>
       </c>
@@ -33546,7 +34072,7 @@
         <v/>
       </c>
     </row>
-    <row r="371" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>1239639</v>
       </c>
@@ -33630,7 +34156,7 @@
         <v/>
       </c>
     </row>
-    <row r="372" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>1239640</v>
       </c>
@@ -33714,7 +34240,7 @@
         <v/>
       </c>
     </row>
-    <row r="373" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>1239640</v>
       </c>
@@ -33798,7 +34324,7 @@
         <v/>
       </c>
     </row>
-    <row r="374" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>1239640</v>
       </c>
@@ -33882,7 +34408,7 @@
         <v/>
       </c>
     </row>
-    <row r="375" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>1239640</v>
       </c>
@@ -33966,7 +34492,7 @@
         <v/>
       </c>
     </row>
-    <row r="376" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>1239640</v>
       </c>
@@ -34050,7 +34576,7 @@
         <v/>
       </c>
     </row>
-    <row r="377" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>1239640</v>
       </c>
@@ -34134,7 +34660,7 @@
         <v/>
       </c>
     </row>
-    <row r="378" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>1239640</v>
       </c>
@@ -34218,7 +34744,7 @@
         <v/>
       </c>
     </row>
-    <row r="379" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>1239640</v>
       </c>
@@ -34302,7 +34828,7 @@
         <v/>
       </c>
     </row>
-    <row r="380" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>1239640</v>
       </c>
@@ -34386,7 +34912,7 @@
         <v/>
       </c>
     </row>
-    <row r="381" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>1239640</v>
       </c>
@@ -34470,7 +34996,7 @@
         <v/>
       </c>
     </row>
-    <row r="382" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>1239641</v>
       </c>
@@ -34554,7 +35080,7 @@
         <v/>
       </c>
     </row>
-    <row r="383" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>1239641</v>
       </c>
@@ -34638,7 +35164,7 @@
         <v/>
       </c>
     </row>
-    <row r="384" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>1239641</v>
       </c>
@@ -34722,7 +35248,7 @@
         <v/>
       </c>
     </row>
-    <row r="385" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>1239641</v>
       </c>
@@ -34806,7 +35332,7 @@
         <v/>
       </c>
     </row>
-    <row r="386" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>1239641</v>
       </c>
@@ -34890,7 +35416,7 @@
         <v/>
       </c>
     </row>
-    <row r="387" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>1239641</v>
       </c>
@@ -34974,7 +35500,7 @@
         <v/>
       </c>
     </row>
-    <row r="388" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>1239641</v>
       </c>
@@ -35058,7 +35584,7 @@
         <v/>
       </c>
     </row>
-    <row r="389" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>1239641</v>
       </c>
@@ -35142,7 +35668,7 @@
         <v/>
       </c>
     </row>
-    <row r="390" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>1239641</v>
       </c>
@@ -35226,7 +35752,7 @@
         <v/>
       </c>
     </row>
-    <row r="391" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>1239641</v>
       </c>
@@ -35310,7 +35836,7 @@
         <v/>
       </c>
     </row>
-    <row r="392" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>1239642</v>
       </c>
@@ -35394,7 +35920,7 @@
         <v/>
       </c>
     </row>
-    <row r="393" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>1239642</v>
       </c>
@@ -35478,7 +36004,7 @@
         <v/>
       </c>
     </row>
-    <row r="394" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>1239642</v>
       </c>
@@ -35562,7 +36088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>1239642</v>
       </c>
@@ -35646,7 +36172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>1239642</v>
       </c>
@@ -35730,7 +36256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>1239642</v>
       </c>
@@ -35814,7 +36340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>1239642</v>
       </c>
@@ -35898,7 +36424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>1240643</v>
       </c>
@@ -35982,7 +36508,7 @@
         <v/>
       </c>
     </row>
-    <row r="400" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>1240643</v>
       </c>
@@ -36066,7 +36592,7 @@
         <v/>
       </c>
     </row>
-    <row r="401" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>1240644</v>
       </c>
@@ -36150,7 +36676,7 @@
         <v/>
       </c>
     </row>
-    <row r="402" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>1240644</v>
       </c>
@@ -36234,7 +36760,7 @@
         <v/>
       </c>
     </row>
-    <row r="403" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>1240644</v>
       </c>
@@ -36318,7 +36844,7 @@
         <v/>
       </c>
     </row>
-    <row r="404" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>1240644</v>
       </c>
@@ -36402,7 +36928,7 @@
         <v/>
       </c>
     </row>
-    <row r="405" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>1240644</v>
       </c>
@@ -36486,7 +37012,7 @@
         <v/>
       </c>
     </row>
-    <row r="406" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>1240644</v>
       </c>
@@ -36570,7 +37096,7 @@
         <v/>
       </c>
     </row>
-    <row r="407" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>1240644</v>
       </c>
@@ -36654,7 +37180,7 @@
         <v/>
       </c>
     </row>
-    <row r="408" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>1240644</v>
       </c>
@@ -36738,7 +37264,7 @@
         <v/>
       </c>
     </row>
-    <row r="409" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>1240644</v>
       </c>
@@ -36822,7 +37348,7 @@
         <v/>
       </c>
     </row>
-    <row r="410" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>1240644</v>
       </c>
@@ -36906,7 +37432,7 @@
         <v/>
       </c>
     </row>
-    <row r="411" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A411">
         <v>1240645</v>
       </c>
@@ -36990,7 +37516,7 @@
         <v/>
       </c>
     </row>
-    <row r="412" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>1240645</v>
       </c>
@@ -37074,7 +37600,7 @@
         <v/>
       </c>
     </row>
-    <row r="413" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A413">
         <v>1240645</v>
       </c>
@@ -37158,7 +37684,7 @@
         <v/>
       </c>
     </row>
-    <row r="414" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A414">
         <v>1240645</v>
       </c>
@@ -37242,7 +37768,7 @@
         <v/>
       </c>
     </row>
-    <row r="415" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A415">
         <v>1240645</v>
       </c>
@@ -37326,7 +37852,7 @@
         <v/>
       </c>
     </row>
-    <row r="416" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>1240645</v>
       </c>
@@ -37410,7 +37936,7 @@
         <v/>
       </c>
     </row>
-    <row r="417" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>1240645</v>
       </c>
@@ -37494,7 +38020,7 @@
         <v/>
       </c>
     </row>
-    <row r="418" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>1240645</v>
       </c>
@@ -37578,7 +38104,7 @@
         <v/>
       </c>
     </row>
-    <row r="419" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>1240645</v>
       </c>
@@ -37662,7 +38188,7 @@
         <v/>
       </c>
     </row>
-    <row r="420" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>1240645</v>
       </c>
@@ -37746,7 +38272,7 @@
         <v/>
       </c>
     </row>
-    <row r="421" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A421">
         <v>1240645</v>
       </c>
@@ -37830,7 +38356,7 @@
         <v/>
       </c>
     </row>
-    <row r="422" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>1240646</v>
       </c>
@@ -37914,7 +38440,7 @@
         <v/>
       </c>
     </row>
-    <row r="423" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A423">
         <v>1240646</v>
       </c>
@@ -37998,7 +38524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A424">
         <v>1240646</v>
       </c>
@@ -38082,7 +38608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A425">
         <v>1240646</v>
       </c>
@@ -38166,7 +38692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A426">
         <v>1240646</v>
       </c>
@@ -38250,7 +38776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A427">
         <v>1240646</v>
       </c>
@@ -38334,7 +38860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A428">
         <v>1241647</v>
       </c>
@@ -38418,7 +38944,7 @@
         <v/>
       </c>
     </row>
-    <row r="429" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A429">
         <v>1241647</v>
       </c>
@@ -38502,7 +39028,7 @@
         <v/>
       </c>
     </row>
-    <row r="430" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A430">
         <v>1241648</v>
       </c>
@@ -38586,7 +39112,7 @@
         <v/>
       </c>
     </row>
-    <row r="431" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A431">
         <v>1241648</v>
       </c>
@@ -38670,7 +39196,7 @@
         <v/>
       </c>
     </row>
-    <row r="432" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A432">
         <v>1241648</v>
       </c>
@@ -38754,7 +39280,7 @@
         <v/>
       </c>
     </row>
-    <row r="433" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A433">
         <v>1241648</v>
       </c>
@@ -38838,7 +39364,7 @@
         <v/>
       </c>
     </row>
-    <row r="434" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A434">
         <v>1241648</v>
       </c>
@@ -38922,7 +39448,7 @@
         <v/>
       </c>
     </row>
-    <row r="435" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A435">
         <v>1241648</v>
       </c>
@@ -39006,7 +39532,7 @@
         <v/>
       </c>
     </row>
-    <row r="436" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A436">
         <v>1241648</v>
       </c>
@@ -39090,7 +39616,7 @@
         <v/>
       </c>
     </row>
-    <row r="437" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A437">
         <v>1241648</v>
       </c>
@@ -39174,7 +39700,7 @@
         <v/>
       </c>
     </row>
-    <row r="438" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A438">
         <v>1241648</v>
       </c>
@@ -39258,7 +39784,7 @@
         <v/>
       </c>
     </row>
-    <row r="439" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A439">
         <v>1241648</v>
       </c>
@@ -39342,7 +39868,7 @@
         <v/>
       </c>
     </row>
-    <row r="440" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A440">
         <v>1241649</v>
       </c>
@@ -39426,7 +39952,7 @@
         <v/>
       </c>
     </row>
-    <row r="441" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A441">
         <v>1241649</v>
       </c>
@@ -39510,7 +40036,7 @@
         <v/>
       </c>
     </row>
-    <row r="442" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A442">
         <v>1241649</v>
       </c>
@@ -39594,7 +40120,7 @@
         <v/>
       </c>
     </row>
-    <row r="443" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A443">
         <v>1241649</v>
       </c>
@@ -39678,7 +40204,7 @@
         <v/>
       </c>
     </row>
-    <row r="444" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A444">
         <v>1241649</v>
       </c>
@@ -39762,7 +40288,7 @@
         <v/>
       </c>
     </row>
-    <row r="445" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A445">
         <v>1241649</v>
       </c>
@@ -39846,7 +40372,7 @@
         <v/>
       </c>
     </row>
-    <row r="446" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A446">
         <v>1241649</v>
       </c>
@@ -39930,7 +40456,7 @@
         <v/>
       </c>
     </row>
-    <row r="447" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A447">
         <v>1241649</v>
       </c>
@@ -40014,7 +40540,7 @@
         <v/>
       </c>
     </row>
-    <row r="448" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A448">
         <v>1241649</v>
       </c>
@@ -40098,7 +40624,7 @@
         <v/>
       </c>
     </row>
-    <row r="449" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A449">
         <v>1241649</v>
       </c>
@@ -40182,7 +40708,7 @@
         <v/>
       </c>
     </row>
-    <row r="450" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A450">
         <v>1241649</v>
       </c>
@@ -40266,7 +40792,7 @@
         <v/>
       </c>
     </row>
-    <row r="451" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A451">
         <v>1241650</v>
       </c>
@@ -40350,7 +40876,7 @@
         <v/>
       </c>
     </row>
-    <row r="452" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A452">
         <v>1241650</v>
       </c>
@@ -40434,7 +40960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A453">
         <v>1241650</v>
       </c>
@@ -40518,7 +41044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A454">
         <v>1241650</v>
       </c>
@@ -40602,7 +41128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A455">
         <v>1241650</v>
       </c>
@@ -40686,7 +41212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A456">
         <v>1241650</v>
       </c>
@@ -40770,7 +41296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A457">
         <v>1242651</v>
       </c>
@@ -40854,7 +41380,7 @@
         <v/>
       </c>
     </row>
-    <row r="458" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A458">
         <v>1243000</v>
       </c>
@@ -40938,7 +41464,7 @@
         <v/>
       </c>
     </row>
-    <row r="459" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A459">
         <v>1243000</v>
       </c>
@@ -41022,7 +41548,7 @@
         <v/>
       </c>
     </row>
-    <row r="460" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A460">
         <v>1243000</v>
       </c>
@@ -41106,7 +41632,7 @@
         <v/>
       </c>
     </row>
-    <row r="461" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A461">
         <v>1243000</v>
       </c>
@@ -41190,7 +41716,7 @@
         <v/>
       </c>
     </row>
-    <row r="462" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A462">
         <v>1243001</v>
       </c>
@@ -41274,7 +41800,7 @@
         <v/>
       </c>
     </row>
-    <row r="463" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A463">
         <v>1243001</v>
       </c>
@@ -41358,7 +41884,7 @@
         <v/>
       </c>
     </row>
-    <row r="464" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A464">
         <v>1243001</v>
       </c>
@@ -41442,7 +41968,7 @@
         <v/>
       </c>
     </row>
-    <row r="465" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A465">
         <v>1243001</v>
       </c>
@@ -41526,7 +42052,7 @@
         <v/>
       </c>
     </row>
-    <row r="466" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A466">
         <v>1243001</v>
       </c>
@@ -41610,7 +42136,7 @@
         <v/>
       </c>
     </row>
-    <row r="467" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A467">
         <v>1243001</v>
       </c>
@@ -41694,7 +42220,7 @@
         <v/>
       </c>
     </row>
-    <row r="468" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A468">
         <v>1243001</v>
       </c>
@@ -41778,7 +42304,7 @@
         <v/>
       </c>
     </row>
-    <row r="469" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A469">
         <v>1243001</v>
       </c>
@@ -41862,7 +42388,7 @@
         <v/>
       </c>
     </row>
-    <row r="470" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A470">
         <v>1243001</v>
       </c>
@@ -41946,7 +42472,7 @@
         <v/>
       </c>
     </row>
-    <row r="471" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A471">
         <v>1243001</v>
       </c>
@@ -42030,7 +42556,7 @@
         <v/>
       </c>
     </row>
-    <row r="472" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A472">
         <v>1243002</v>
       </c>
@@ -42114,7 +42640,7 @@
         <v/>
       </c>
     </row>
-    <row r="473" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A473">
         <v>1243002</v>
       </c>
@@ -42198,7 +42724,7 @@
         <v/>
       </c>
     </row>
-    <row r="474" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A474">
         <v>1243002</v>
       </c>
@@ -42282,7 +42808,7 @@
         <v/>
       </c>
     </row>
-    <row r="475" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A475">
         <v>1243002</v>
       </c>
@@ -42366,7 +42892,7 @@
         <v/>
       </c>
     </row>
-    <row r="476" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A476">
         <v>1243002</v>
       </c>
@@ -42450,7 +42976,7 @@
         <v/>
       </c>
     </row>
-    <row r="477" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A477">
         <v>1243002</v>
       </c>
@@ -42534,7 +43060,7 @@
         <v/>
       </c>
     </row>
-    <row r="478" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A478">
         <v>1243002</v>
       </c>
@@ -42618,7 +43144,7 @@
         <v/>
       </c>
     </row>
-    <row r="479" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A479">
         <v>1243002</v>
       </c>
@@ -42702,7 +43228,7 @@
         <v/>
       </c>
     </row>
-    <row r="480" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A480">
         <v>1243002</v>
       </c>
@@ -42786,7 +43312,7 @@
         <v/>
       </c>
     </row>
-    <row r="481" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A481">
         <v>1243002</v>
       </c>
@@ -42870,7 +43396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A482">
         <v>1243002</v>
       </c>
@@ -42954,7 +43480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A483">
         <v>1243003</v>
       </c>
@@ -43038,7 +43564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A484">
         <v>1243003</v>
       </c>
@@ -43122,7 +43648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A485">
         <v>1243003</v>
       </c>
@@ -43206,7 +43732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A486">
         <v>1243807</v>
       </c>
@@ -43290,7 +43816,7 @@
         <v/>
       </c>
     </row>
-    <row r="487" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A487">
         <v>1243807</v>
       </c>
@@ -43374,7 +43900,7 @@
         <v/>
       </c>
     </row>
-    <row r="488" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A488">
         <v>1243808</v>
       </c>
@@ -43458,7 +43984,7 @@
         <v/>
       </c>
     </row>
-    <row r="489" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A489">
         <v>1243808</v>
       </c>
@@ -43542,7 +44068,7 @@
         <v/>
       </c>
     </row>
-    <row r="490" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A490">
         <v>1243808</v>
       </c>
@@ -43626,7 +44152,7 @@
         <v/>
       </c>
     </row>
-    <row r="491" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A491">
         <v>1243808</v>
       </c>
@@ -43710,7 +44236,7 @@
         <v/>
       </c>
     </row>
-    <row r="492" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A492">
         <v>1243808</v>
       </c>
@@ -43794,7 +44320,7 @@
         <v/>
       </c>
     </row>
-    <row r="493" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A493">
         <v>1243808</v>
       </c>
@@ -43878,7 +44404,7 @@
         <v/>
       </c>
     </row>
-    <row r="494" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A494">
         <v>1243808</v>
       </c>
@@ -43962,7 +44488,7 @@
         <v/>
       </c>
     </row>
-    <row r="495" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A495">
         <v>1243808</v>
       </c>
@@ -44046,7 +44572,7 @@
         <v/>
       </c>
     </row>
-    <row r="496" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A496">
         <v>1243808</v>
       </c>
@@ -44130,7 +44656,7 @@
         <v/>
       </c>
     </row>
-    <row r="497" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A497">
         <v>1243808</v>
       </c>
@@ -44214,7 +44740,7 @@
         <v/>
       </c>
     </row>
-    <row r="498" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A498">
         <v>1243809</v>
       </c>
@@ -44298,7 +44824,7 @@
         <v/>
       </c>
     </row>
-    <row r="499" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A499">
         <v>1243809</v>
       </c>
@@ -44382,7 +44908,7 @@
         <v/>
       </c>
     </row>
-    <row r="500" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A500">
         <v>1243809</v>
       </c>
@@ -44466,7 +44992,7 @@
         <v/>
       </c>
     </row>
-    <row r="501" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A501">
         <v>1243809</v>
       </c>
@@ -44550,7 +45076,7 @@
         <v/>
       </c>
     </row>
-    <row r="502" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A502">
         <v>1243809</v>
       </c>
@@ -44634,7 +45160,7 @@
         <v/>
       </c>
     </row>
-    <row r="503" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A503">
         <v>1243809</v>
       </c>
@@ -44718,7 +45244,7 @@
         <v/>
       </c>
     </row>
-    <row r="504" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A504">
         <v>1243809</v>
       </c>
@@ -44802,7 +45328,7 @@
         <v/>
       </c>
     </row>
-    <row r="505" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A505">
         <v>1243809</v>
       </c>
@@ -44886,7 +45412,7 @@
         <v/>
       </c>
     </row>
-    <row r="506" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A506">
         <v>1243809</v>
       </c>
@@ -44970,7 +45496,7 @@
         <v/>
       </c>
     </row>
-    <row r="507" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A507">
         <v>1243809</v>
       </c>
@@ -45054,7 +45580,7 @@
         <v/>
       </c>
     </row>
-    <row r="508" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A508">
         <v>1243809</v>
       </c>
@@ -45138,7 +45664,7 @@
         <v/>
       </c>
     </row>
-    <row r="509" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A509">
         <v>1243809</v>
       </c>
@@ -45222,7 +45748,7 @@
         <v/>
       </c>
     </row>
-    <row r="510" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A510">
         <v>1243810</v>
       </c>
@@ -45306,7 +45832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A511">
         <v>1243810</v>
       </c>
@@ -45390,7 +45916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A512">
         <v>1243810</v>
       </c>
@@ -45474,7 +46000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A513">
         <v>1243810</v>
       </c>
@@ -45558,7 +46084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A514">
         <v>1244813</v>
       </c>
@@ -45642,7 +46168,7 @@
         <v/>
       </c>
     </row>
-    <row r="515" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A515">
         <v>1244813</v>
       </c>
@@ -45726,7 +46252,7 @@
         <v/>
       </c>
     </row>
-    <row r="516" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A516">
         <v>1244814</v>
       </c>
@@ -45810,7 +46336,7 @@
         <v/>
       </c>
     </row>
-    <row r="517" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A517">
         <v>1244814</v>
       </c>
@@ -45894,7 +46420,7 @@
         <v/>
       </c>
     </row>
-    <row r="518" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A518">
         <v>1244814</v>
       </c>
@@ -45978,7 +46504,7 @@
         <v/>
       </c>
     </row>
-    <row r="519" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A519">
         <v>1244814</v>
       </c>
@@ -46062,7 +46588,7 @@
         <v/>
       </c>
     </row>
-    <row r="520" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A520">
         <v>1244814</v>
       </c>
@@ -46146,7 +46672,7 @@
         <v/>
       </c>
     </row>
-    <row r="521" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A521">
         <v>1244814</v>
       </c>
@@ -46230,7 +46756,7 @@
         <v/>
       </c>
     </row>
-    <row r="522" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A522">
         <v>1244814</v>
       </c>
@@ -46314,7 +46840,7 @@
         <v/>
       </c>
     </row>
-    <row r="523" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A523">
         <v>1244814</v>
       </c>
@@ -46398,7 +46924,7 @@
         <v/>
       </c>
     </row>
-    <row r="524" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A524">
         <v>1244814</v>
       </c>
@@ -46482,7 +47008,7 @@
         <v/>
       </c>
     </row>
-    <row r="525" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A525">
         <v>1244814</v>
       </c>
@@ -46566,7 +47092,7 @@
         <v/>
       </c>
     </row>
-    <row r="526" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A526">
         <v>1244815</v>
       </c>
@@ -46650,7 +47176,7 @@
         <v/>
       </c>
     </row>
-    <row r="527" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A527">
         <v>1244815</v>
       </c>
@@ -46734,7 +47260,7 @@
         <v/>
       </c>
     </row>
-    <row r="528" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A528">
         <v>1244815</v>
       </c>
@@ -46818,7 +47344,7 @@
         <v/>
       </c>
     </row>
-    <row r="529" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A529">
         <v>1244815</v>
       </c>
@@ -46902,7 +47428,7 @@
         <v/>
       </c>
     </row>
-    <row r="530" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A530">
         <v>1244815</v>
       </c>
@@ -46986,7 +47512,7 @@
         <v/>
       </c>
     </row>
-    <row r="531" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A531">
         <v>1244815</v>
       </c>
@@ -47070,7 +47596,7 @@
         <v/>
       </c>
     </row>
-    <row r="532" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A532">
         <v>1244815</v>
       </c>
@@ -47154,7 +47680,7 @@
         <v/>
       </c>
     </row>
-    <row r="533" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A533">
         <v>1244815</v>
       </c>
@@ -47238,7 +47764,7 @@
         <v/>
       </c>
     </row>
-    <row r="534" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A534">
         <v>1244815</v>
       </c>
@@ -47322,7 +47848,7 @@
         <v/>
       </c>
     </row>
-    <row r="535" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A535">
         <v>1244815</v>
       </c>
@@ -47406,7 +47932,7 @@
         <v/>
       </c>
     </row>
-    <row r="536" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A536">
         <v>1244815</v>
       </c>
@@ -47490,7 +48016,7 @@
         <v/>
       </c>
     </row>
-    <row r="537" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A537">
         <v>1244816</v>
       </c>
@@ -47574,7 +48100,7 @@
         <v/>
       </c>
     </row>
-    <row r="538" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A538">
         <v>1244816</v>
       </c>
@@ -47658,7 +48184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A539">
         <v>1244816</v>
       </c>
@@ -47742,7 +48268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A540">
         <v>1244816</v>
       </c>
@@ -47826,7 +48352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A541">
         <v>1244816</v>
       </c>
@@ -47910,7 +48436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A542">
         <v>1244816</v>
       </c>
@@ -47994,7 +48520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A543">
         <v>1245817</v>
       </c>
@@ -48078,7 +48604,7 @@
         <v/>
       </c>
     </row>
-    <row r="544" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:26" x14ac:dyDescent="0.3">
       <c r="L544">
         <f t="shared" si="126"/>
         <v>-1245817</v>
@@ -48132,7 +48658,7 @@
         <v/>
       </c>
     </row>
-    <row r="545" spans="12:26" x14ac:dyDescent="0.25">
+    <row r="545" spans="12:26" x14ac:dyDescent="0.3">
       <c r="L545">
         <f t="shared" si="126"/>
         <v>0</v>
@@ -48186,7 +48712,7 @@
         <v/>
       </c>
     </row>
-    <row r="546" spans="12:26" x14ac:dyDescent="0.25">
+    <row r="546" spans="12:26" x14ac:dyDescent="0.3">
       <c r="L546">
         <f t="shared" si="126"/>
         <v>0</v>
@@ -48240,7 +48766,7 @@
         <v/>
       </c>
     </row>
-    <row r="547" spans="12:26" x14ac:dyDescent="0.25">
+    <row r="547" spans="12:26" x14ac:dyDescent="0.3">
       <c r="L547">
         <f t="shared" si="126"/>
         <v>0</v>
@@ -48294,7 +48820,7 @@
         <v/>
       </c>
     </row>
-    <row r="548" spans="12:26" x14ac:dyDescent="0.25">
+    <row r="548" spans="12:26" x14ac:dyDescent="0.3">
       <c r="L548">
         <f t="shared" si="126"/>
         <v>0</v>
@@ -48348,7 +48874,7 @@
         <v/>
       </c>
     </row>
-    <row r="549" spans="12:26" x14ac:dyDescent="0.25">
+    <row r="549" spans="12:26" x14ac:dyDescent="0.3">
       <c r="L549">
         <f t="shared" si="126"/>
         <v>0</v>
@@ -48402,7 +48928,7 @@
         <v/>
       </c>
     </row>
-    <row r="550" spans="12:26" x14ac:dyDescent="0.25">
+    <row r="550" spans="12:26" x14ac:dyDescent="0.3">
       <c r="L550">
         <f t="shared" si="126"/>
         <v>0</v>
@@ -48456,7 +48982,7 @@
         <v/>
       </c>
     </row>
-    <row r="551" spans="12:26" x14ac:dyDescent="0.25">
+    <row r="551" spans="12:26" x14ac:dyDescent="0.3">
       <c r="L551">
         <f t="shared" si="126"/>
         <v>0</v>
@@ -48510,7 +49036,7 @@
         <v/>
       </c>
     </row>
-    <row r="552" spans="12:26" x14ac:dyDescent="0.25">
+    <row r="552" spans="12:26" x14ac:dyDescent="0.3">
       <c r="L552">
         <f t="shared" si="126"/>
         <v>0</v>
@@ -48564,7 +49090,7 @@
         <v/>
       </c>
     </row>
-    <row r="553" spans="12:26" x14ac:dyDescent="0.25">
+    <row r="553" spans="12:26" x14ac:dyDescent="0.3">
       <c r="L553">
         <f t="shared" si="126"/>
         <v>0</v>
@@ -48618,7 +49144,7 @@
         <v/>
       </c>
     </row>
-    <row r="554" spans="12:26" x14ac:dyDescent="0.25">
+    <row r="554" spans="12:26" x14ac:dyDescent="0.3">
       <c r="L554">
         <f t="shared" si="126"/>
         <v>0</v>
@@ -48672,7 +49198,7 @@
         <v/>
       </c>
     </row>
-    <row r="555" spans="12:26" x14ac:dyDescent="0.25">
+    <row r="555" spans="12:26" x14ac:dyDescent="0.3">
       <c r="L555">
         <f t="shared" si="126"/>
         <v>0</v>
@@ -48726,7 +49252,7 @@
         <v/>
       </c>
     </row>
-    <row r="556" spans="12:26" x14ac:dyDescent="0.25">
+    <row r="556" spans="12:26" x14ac:dyDescent="0.3">
       <c r="L556">
         <f t="shared" si="126"/>
         <v>0</v>
@@ -48780,7 +49306,7 @@
         <v/>
       </c>
     </row>
-    <row r="557" spans="12:26" x14ac:dyDescent="0.25">
+    <row r="557" spans="12:26" x14ac:dyDescent="0.3">
       <c r="L557">
         <f t="shared" si="126"/>
         <v>0</v>
@@ -48834,7 +49360,7 @@
         <v/>
       </c>
     </row>
-    <row r="558" spans="12:26" x14ac:dyDescent="0.25">
+    <row r="558" spans="12:26" x14ac:dyDescent="0.3">
       <c r="L558">
         <f t="shared" si="126"/>
         <v>0</v>
@@ -48888,7 +49414,7 @@
         <v/>
       </c>
     </row>
-    <row r="559" spans="12:26" x14ac:dyDescent="0.25">
+    <row r="559" spans="12:26" x14ac:dyDescent="0.3">
       <c r="L559">
         <f t="shared" si="126"/>
         <v>0</v>

--- a/example/Data.xlsx
+++ b/example/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dawid\Documents\gitlab\eves_custom_module\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F756F4EB-2213-4A87-B2D8-4F695A2A1086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C9597E-AEC1-4269-B528-334918168595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1301,7 +1301,7 @@
   <dimension ref="B2:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
